--- a/Exam/MyExcel.xlsx
+++ b/Exam/MyExcel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlkompatscher/Dev/tum/ss25/InventoryManagement/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD8F0E-A075-9E4A-B4D1-15287A03CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C385552C-36EE-2B4E-BC02-AE9B6D7A1AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="700" windowWidth="12460" windowHeight="20680" xr2:uid="{10C16798-0625-374D-833A-5736B5266599}"/>
+    <workbookView xWindow="8700" yWindow="700" windowWidth="16720" windowHeight="20680" xr2:uid="{10C16798-0625-374D-833A-5736B5266599}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="2" r:id="rId1"/>
+    <sheet name="4" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>t</t>
   </si>
@@ -153,6 +154,78 @@
   </si>
   <si>
     <t>Inverse of G(z) lookup in table</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>lamdba</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Feasible</t>
+  </si>
+  <si>
+    <t>NO, because larger than W</t>
+  </si>
+  <si>
+    <t>YES, because smaller than W</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Sum2</t>
+  </si>
+  <si>
+    <t>Sum1</t>
+  </si>
+  <si>
+    <t>b) I would be willing to pay 149,43 EUR</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Constr</t>
+  </si>
+  <si>
+    <t>Unconstr</t>
+  </si>
+  <si>
+    <t>T_opt</t>
+  </si>
+  <si>
+    <t>lambda =0 -&gt;</t>
+  </si>
+  <si>
+    <t>Q*</t>
+  </si>
+  <si>
+    <t>t_rel = T+opt * (ai*di / (SUM(ai*di)))</t>
+  </si>
+  <si>
+    <t>Y_1 = Q{*1} - D_1*t_2)</t>
   </si>
 </sst>
 </file>
@@ -538,10 +611,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F14EA-25C3-594A-87C4-99532A7B9824}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(2*$D2*$B2/($E2+2*$G$2*$C2))</f>
+        <v>244.94897427831782</v>
+      </c>
+      <c r="I2">
+        <f>H2*C2+H3*C3</f>
+        <v>931.95095627922376</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
+        <f>$D2*$B2/$H2+$E2*$H2/2</f>
+        <v>367.42346141747669</v>
+      </c>
+      <c r="P2">
+        <f>SQRT(2*SUM(D2:D3)/(E2*B2+E3*B3))</f>
+        <v>0.67373069061625868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>SQRT(2*$D3*$B3/($E3+2*$G$2*$C3))</f>
+        <v>197.10403344427024</v>
+      </c>
+      <c r="L3">
+        <f>$D3*$B3/$H3+$E3*$H3/2</f>
+        <v>394.20806688854049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4">
+        <f>SUM(L2:L3)</f>
+        <v>761.63152830601712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT(2*$D6*$B6/($E6+2*$G$6*$C6))</f>
+        <v>109.54451150103323</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*C6+H7*C7</f>
+        <v>468.0071331507632</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <f>$D6*$B6/$H6+$E6*$H6/2</f>
+        <v>492.95030175464944</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6">
+        <f>SQRT((2*D2+D3)/(E2*B2+E3*B3))</f>
+        <v>0.59782213437428533</v>
+      </c>
+      <c r="R6">
+        <f>P6*((C2*B2+C3*B3)/(C2*C2*B2*B2 + C3*C2*B3*B2 + C3*C3*B3*B3))</f>
+        <v>0.50100200400801598</v>
+      </c>
+      <c r="S6" s="1">
+        <f>MIN(Q6:R6)</f>
+        <v>0.50100200400801598</v>
+      </c>
+      <c r="V6">
+        <f>$B6*$S$6</f>
+        <v>150.30060120240481</v>
+      </c>
+      <c r="W6">
+        <f>$C6*$B6/($C$6*$B$6+$C$7*$B$7)*$S$6</f>
+        <v>0.36072144288577151</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>V6-B6*W7</f>
+        <v>108.21643286573146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>350</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT(2*$D7*$B7/($E7+2*$G$6*$C7))</f>
+        <v>139.37359864766353</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7">
+        <f>$D7*$B7/$H7+$E7*$H7/2</f>
+        <v>418.12079594299064</v>
+      </c>
+      <c r="V7">
+        <f>$B7*$S$6</f>
+        <v>175.35070140280558</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W8" si="0">$C7*$B7/($C$6*$B$6+$C$7*$B$7)*$S$6</f>
+        <v>0.14028056112224449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L6:L7)</f>
+        <v>911.07109769764008</v>
+      </c>
+      <c r="W8">
+        <f>SUM(W6:W7)</f>
+        <v>0.50100200400801598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>SQRT(2*$D10*$B10/($E10+2*$G$10*$C10))</f>
+        <v>81.649658092772611</v>
+      </c>
+      <c r="I10">
+        <f>H10*C10+H11*C11</f>
+        <v>358.74704104572828</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1">
+        <f>L8-L4</f>
+        <v>149.43956939162297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>350</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(2*$D11*$B11/($E11+2*$G$10*$C11))</f>
+        <v>113.79806676741042</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C495D970-6B8F-FB43-A755-44A0CE908F00}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView zoomScale="58" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +1374,7 @@
         <v>75.27280440427208</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="C19:G19" si="2">D$17 + $E$10*D$18</f>
+        <f t="shared" ref="D19:G19" si="2">D$17 + $E$10*D$18</f>
         <v>74.212804404272077</v>
       </c>
       <c r="E19">
@@ -978,15 +1444,15 @@
         <v>51</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I17:I30" si="5">AVERAGE($C21:$G21)</f>
+        <f t="shared" ref="I21:I30" si="5">AVERAGE($C21:$G21)</f>
         <v>50</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J17:J30" si="6">_xlfn.STDEV.S($C21:$G21)</f>
+        <f t="shared" ref="J21:J30" si="6">_xlfn.STDEV.S($C21:$G21)</f>
         <v>9.9498743710661994</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K17:K30" si="7">POWER($J21,2)</f>
+        <f t="shared" ref="K21:K30" si="7">POWER($J21,2)</f>
         <v>99</v>
       </c>
     </row>
